--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="上班时长与回报" sheetId="1" r:id="rId1"/>
+    <sheet name="上班" sheetId="1" r:id="rId1"/>
+    <sheet name="日历" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>月度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +42,6 @@
   </si>
   <si>
     <t>应加班二档时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加法计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,6 +107,66 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8E27C92B-1264-101C-8A2F-040224009C02}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_Version" ax:value="524288"/>
+  <ax:ocxPr ax:name="_ExtentX" ax:value="23601"/>
+  <ax:ocxPr ax:name="_ExtentY" ax:value="13944"/>
+  <ax:ocxPr ax:name="_StockProps" ax:value="1"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="-2147483633"/>
+  <ax:ocxPr ax:name="Year" ax:value="2025"/>
+  <ax:ocxPr ax:name="Month" ax:value="6"/>
+  <ax:ocxPr ax:name="Day" ax:value="21"/>
+  <ax:ocxPr ax:name="DayLength" ax:value="1"/>
+  <ax:ocxPr ax:name="MonthLength" ax:value="1"/>
+  <ax:ocxPr ax:name="DayFontColor" ax:value="0"/>
+  <ax:ocxPr ax:name="FirstDay" ax:value="1"/>
+  <ax:ocxPr ax:name="GridCellEffect" ax:value="1"/>
+  <ax:ocxPr ax:name="GridFontColor" ax:value="10485760"/>
+  <ax:ocxPr ax:name="GridLinesColor" ax:value="-2147483632"/>
+  <ax:ocxPr ax:name="ShowDateSelectors" ax:value="-1"/>
+  <ax:ocxPr ax:name="ShowDays" ax:value="-1"/>
+  <ax:ocxPr ax:name="ShowHorizontalGrid" ax:value="-1"/>
+  <ax:ocxPr ax:name="ShowTitle" ax:value="-1"/>
+  <ax:ocxPr ax:name="ShowVerticalGrid" ax:value="-1"/>
+  <ax:ocxPr ax:name="TitleFontColor" ax:value="10485760"/>
+  <ax:ocxPr ax:name="ValueIsNull" ax:value="0"/>
+  <ax:ocxPr ax:name="DayFont">
+    <ax:font ax:persistence="persistPropertyBag">
+      <ax:ocxPr ax:name="Name" ax:value="宋体"/>
+      <ax:ocxPr ax:name="Size" ax:value="9"/>
+      <ax:ocxPr ax:name="Charset" ax:value="134"/>
+      <ax:ocxPr ax:name="Weight" ax:value="700"/>
+      <ax:ocxPr ax:name="Underline" ax:value="0"/>
+      <ax:ocxPr ax:name="Italic" ax:value="0"/>
+      <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
+    </ax:font>
+  </ax:ocxPr>
+  <ax:ocxPr ax:name="GridFont">
+    <ax:font ax:persistence="persistPropertyBag">
+      <ax:ocxPr ax:name="Name" ax:value="宋体"/>
+      <ax:ocxPr ax:name="Size" ax:value="9"/>
+      <ax:ocxPr ax:name="Charset" ax:value="134"/>
+      <ax:ocxPr ax:name="Weight" ax:value="400"/>
+      <ax:ocxPr ax:name="Underline" ax:value="0"/>
+      <ax:ocxPr ax:name="Italic" ax:value="0"/>
+      <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
+    </ax:font>
+  </ax:ocxPr>
+  <ax:ocxPr ax:name="TitleFont">
+    <ax:font ax:persistence="persistPropertyBag">
+      <ax:ocxPr ax:name="Name" ax:value="宋体"/>
+      <ax:ocxPr ax:name="Size" ax:value="12"/>
+      <ax:ocxPr ax:name="Charset" ax:value="134"/>
+      <ax:ocxPr ax:name="Weight" ax:value="700"/>
+      <ax:ocxPr ax:name="Underline" ax:value="0"/>
+      <ax:ocxPr ax:name="Italic" ax:value="0"/>
+      <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
+    </ax:font>
+  </ax:ocxPr>
+</ax:ocx>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,10 +454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -410,10 +468,10 @@
     <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="9" max="10" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="G1">
         <v>2000</v>
       </c>
@@ -421,15 +479,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -449,11 +507,8 @@
       <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>202505</v>
       </c>
@@ -484,328 +539,112 @@
       <c r="I3">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <f>(9291.26*D3/B3+1708.74*E3/C3)*0.8</f>
+        <v>7334.08210526316</v>
+      </c>
+      <c r="K3">
+        <f>IF(I3&gt;=G3,2000,IF(I3&gt;=H3,1000,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <f>J3+K3</f>
+        <v>8334.08210526316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>202506</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F22" si="0">B4+C4</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G22" si="1">F4*1.5</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H22" si="2">G4-6</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>202507</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>202508</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>202509</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>202510</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>202511</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>202512</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>202601</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>202602</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>202603</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>202604</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>202605</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>202606</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>202607</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>202608</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>202609</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>202610</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>202611</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>202612</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>-6</v>
       </c>
     </row>
   </sheetData>
@@ -813,4 +652,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <control shapeId="1025" r:id="rId3" name="Calendar1"/>
+  </controls>
+</worksheet>
 </file>
--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="1" r:id="rId1"/>
-    <sheet name="日历" sheetId="2" r:id="rId2"/>
+    <sheet name="日历" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>月度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,14 @@
   </si>
   <si>
     <t>理论周六上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +81,84 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,82 +170,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8E27C92B-1264-101C-8A2F-040224009C02}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_Version" ax:value="524288"/>
-  <ax:ocxPr ax:name="_ExtentX" ax:value="23601"/>
-  <ax:ocxPr ax:name="_ExtentY" ax:value="13944"/>
-  <ax:ocxPr ax:name="_StockProps" ax:value="1"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="-2147483633"/>
-  <ax:ocxPr ax:name="Year" ax:value="2025"/>
-  <ax:ocxPr ax:name="Month" ax:value="6"/>
-  <ax:ocxPr ax:name="Day" ax:value="21"/>
-  <ax:ocxPr ax:name="DayLength" ax:value="1"/>
-  <ax:ocxPr ax:name="MonthLength" ax:value="1"/>
-  <ax:ocxPr ax:name="DayFontColor" ax:value="0"/>
-  <ax:ocxPr ax:name="FirstDay" ax:value="1"/>
-  <ax:ocxPr ax:name="GridCellEffect" ax:value="1"/>
-  <ax:ocxPr ax:name="GridFontColor" ax:value="10485760"/>
-  <ax:ocxPr ax:name="GridLinesColor" ax:value="-2147483632"/>
-  <ax:ocxPr ax:name="ShowDateSelectors" ax:value="-1"/>
-  <ax:ocxPr ax:name="ShowDays" ax:value="-1"/>
-  <ax:ocxPr ax:name="ShowHorizontalGrid" ax:value="-1"/>
-  <ax:ocxPr ax:name="ShowTitle" ax:value="-1"/>
-  <ax:ocxPr ax:name="ShowVerticalGrid" ax:value="-1"/>
-  <ax:ocxPr ax:name="TitleFontColor" ax:value="10485760"/>
-  <ax:ocxPr ax:name="ValueIsNull" ax:value="0"/>
-  <ax:ocxPr ax:name="DayFont">
-    <ax:font ax:persistence="persistPropertyBag">
-      <ax:ocxPr ax:name="Name" ax:value="宋体"/>
-      <ax:ocxPr ax:name="Size" ax:value="9"/>
-      <ax:ocxPr ax:name="Charset" ax:value="134"/>
-      <ax:ocxPr ax:name="Weight" ax:value="700"/>
-      <ax:ocxPr ax:name="Underline" ax:value="0"/>
-      <ax:ocxPr ax:name="Italic" ax:value="0"/>
-      <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
-    </ax:font>
-  </ax:ocxPr>
-  <ax:ocxPr ax:name="GridFont">
-    <ax:font ax:persistence="persistPropertyBag">
-      <ax:ocxPr ax:name="Name" ax:value="宋体"/>
-      <ax:ocxPr ax:name="Size" ax:value="9"/>
-      <ax:ocxPr ax:name="Charset" ax:value="134"/>
-      <ax:ocxPr ax:name="Weight" ax:value="400"/>
-      <ax:ocxPr ax:name="Underline" ax:value="0"/>
-      <ax:ocxPr ax:name="Italic" ax:value="0"/>
-      <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
-    </ax:font>
-  </ax:ocxPr>
-  <ax:ocxPr ax:name="TitleFont">
-    <ax:font ax:persistence="persistPropertyBag">
-      <ax:ocxPr ax:name="Name" ax:value="宋体"/>
-      <ax:ocxPr ax:name="Size" ax:value="12"/>
-      <ax:ocxPr ax:name="Charset" ax:value="134"/>
-      <ax:ocxPr ax:name="Weight" ax:value="700"/>
-      <ax:ocxPr ax:name="Underline" ax:value="0"/>
-      <ax:ocxPr ax:name="Italic" ax:value="0"/>
-      <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
-    </ax:font>
-  </ax:ocxPr>
-</ax:ocx>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,21 +717,217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B1" s="9">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="E4" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>45837</v>
+      </c>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B28" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>$B$1:$B$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B28">
+      <formula1>$E$1:$E$6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <controls>
-    <control shapeId="1025" r:id="rId3" name="Calendar1"/>
-  </controls>
 </worksheet>
 </file>
--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -57,7 +57,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请假</t>
+    <t>周日休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,12 +154,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -184,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,9 +198,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -717,10 +708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -729,7 +720,7 @@
       <c r="A1" s="1">
         <v>45811</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="8">
         <v>2</v>
       </c>
       <c r="E1" s="3">
@@ -740,7 +731,7 @@
       <c r="A2" s="1">
         <v>45812</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>2</v>
       </c>
       <c r="E2" s="4">
@@ -751,7 +742,10 @@
       <c r="A3" s="1">
         <v>45813</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="5">
@@ -762,7 +756,9 @@
       <c r="A4" s="1">
         <v>45814</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
@@ -771,7 +767,9 @@
       <c r="A5" s="1">
         <v>45815</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="7">
+        <v>1.5</v>
+      </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
@@ -780,8 +778,10 @@
       <c r="A6" s="1">
         <v>45816</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -789,133 +789,139 @@
       <c r="A7" s="1">
         <v>45817</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>45818</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>45819</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>45820</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>45821</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>45822</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>45823</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>45824</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>45825</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>45826</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>45827</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>45828</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>45829</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>45830</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>45831</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>45832</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>45833</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>45834</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>45835</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>45836</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>45837</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>45838</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29">
+        <f>SUM(B1:B28)</f>
+        <v>7.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -923,8 +929,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>$B$1:$B$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B28">
-      <formula1>$E$1:$E$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B28 C3">
+      <formula1>$E$1:$E$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>月度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,11 +53,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周日休息</t>
+    <t>一</t>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四-请假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +164,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -178,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -207,6 +260,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,7 +773,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -723,6 +785,9 @@
       <c r="B1" s="8">
         <v>2</v>
       </c>
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="E1" s="3">
         <v>2</v>
       </c>
@@ -734,6 +799,9 @@
       <c r="B2" s="8">
         <v>2</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="4">
         <v>1.5</v>
       </c>
@@ -745,8 +813,8 @@
       <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
+      <c r="C3" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -759,6 +827,9 @@
       <c r="B4" s="7">
         <v>2</v>
       </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
@@ -770,6 +841,9 @@
       <c r="B5" s="7">
         <v>1.5</v>
       </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
@@ -782,142 +856,210 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>45817</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>45818</v>
       </c>
       <c r="B8" s="7"/>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>45819</v>
       </c>
       <c r="B9" s="7"/>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>45820</v>
       </c>
       <c r="B10" s="7"/>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>45821</v>
       </c>
       <c r="B11" s="7"/>
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>45822</v>
       </c>
       <c r="B12" s="7"/>
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>45823</v>
       </c>
       <c r="B13" s="7"/>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>45824</v>
       </c>
       <c r="B14" s="7"/>
+      <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>45825</v>
       </c>
       <c r="B15" s="7"/>
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>45826</v>
       </c>
       <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>45827</v>
       </c>
       <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>45828</v>
       </c>
       <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>45829</v>
       </c>
       <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>45830</v>
       </c>
       <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>45831</v>
       </c>
       <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>45832</v>
       </c>
       <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>45833</v>
       </c>
       <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>45834</v>
       </c>
       <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>45835</v>
       </c>
       <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>45836</v>
       </c>
       <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>45837</v>
       </c>
       <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>45838</v>
       </c>
       <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="B29">
         <f>SUM(B1:B28)</f>
         <v>7.5</v>
@@ -925,11 +1067,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>$B$1:$B$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B28 C3">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B28">
       <formula1>$E$1:$E$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -773,7 +773,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -788,9 +788,6 @@
       <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
@@ -802,9 +799,6 @@
       <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
@@ -816,9 +810,6 @@
       <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
@@ -830,8 +821,8 @@
       <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.5</v>
+      <c r="E4" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -844,8 +835,8 @@
       <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
+      <c r="E5" s="4">
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -858,25 +849,36 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>45817</v>
       </c>
       <c r="B7" s="7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>45818</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
       <c r="C8" s="11" t="s">
         <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -887,6 +889,9 @@
       <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="E9" s="4">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
@@ -896,6 +901,9 @@
       <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
@@ -905,6 +913,9 @@
       <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="E11" s="4">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
@@ -914,6 +925,9 @@
       <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
@@ -923,6 +937,9 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
+      <c r="E13" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
@@ -932,6 +949,9 @@
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
@@ -941,6 +961,9 @@
       <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="E15" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
@@ -950,6 +973,9 @@
       <c r="C16" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
@@ -1062,14 +1088,14 @@
     <row r="29" spans="1:3">
       <c r="B29">
         <f>SUM(B1:B28)</f>
-        <v>7.5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B28">
-      <formula1>$E$1:$E$5</formula1>
+      <formula1>$E$12:$E$16</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -885,7 +885,9 @@
       <c r="A9" s="1">
         <v>45819</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
       <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1088,14 +1090,14 @@
     <row r="29" spans="1:3">
       <c r="B29">
         <f>SUM(B1:B28)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B28">
-      <formula1>$E$12:$E$16</formula1>
+      <formula1>$E$4:$E$16</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -773,7 +773,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -899,7 +899,9 @@
       <c r="A10" s="1">
         <v>45820</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7">
+        <v>1.5</v>
+      </c>
       <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1090,7 +1092,7 @@
     <row r="29" spans="1:3">
       <c r="B29">
         <f>SUM(B1:B28)</f>
-        <v>13</v>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -773,7 +773,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -822,7 +822,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -836,7 +836,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="4">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -850,7 +850,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -864,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -878,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -892,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -906,43 +906,49 @@
         <v>16</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>45821</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
       <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="4">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>45822</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7">
+        <v>2.5</v>
+      </c>
       <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="3">
-        <v>2</v>
+      <c r="E12" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>45823</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4">
-        <v>1.5</v>
+      <c r="E13" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -953,8 +959,8 @@
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5">
-        <v>1</v>
+      <c r="E14" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -965,9 +971,6 @@
       <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
@@ -977,9 +980,6 @@
       <c r="C16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
@@ -1092,14 +1092,14 @@
     <row r="29" spans="1:3">
       <c r="B29">
         <f>SUM(B1:B28)</f>
-        <v>14.5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B28">
-      <formula1>$E$4:$E$16</formula1>
+      <formula1>$E$4:$E$14</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -773,7 +773,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -928,7 +928,7 @@
         <v>45822</v>
       </c>
       <c r="B12" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>20</v>
@@ -955,7 +955,9 @@
       <c r="A14" s="1">
         <v>45824</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1094,7 @@
     <row r="29" spans="1:3">
       <c r="B29">
         <f>SUM(B1:B28)</f>
-        <v>19</v>
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -773,7 +773,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -969,7 +969,9 @@
       <c r="A15" s="1">
         <v>45825</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7">
+        <v>1.5</v>
+      </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1096,7 @@
     <row r="29" spans="1:3">
       <c r="B29">
         <f>SUM(B1:B28)</f>
-        <v>20.5</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -773,7 +773,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -980,7 +980,9 @@
       <c r="A16" s="1">
         <v>45826</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7">
+        <v>1.5</v>
+      </c>
       <c r="C16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1098,7 @@
     <row r="29" spans="1:3">
       <c r="B29">
         <f>SUM(B1:B28)</f>
-        <v>22</v>
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>月度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,13 +92,6 @@
   </si>
   <si>
     <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -770,15 +763,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>45811</v>
       </c>
@@ -789,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>45812</v>
       </c>
@@ -800,7 +793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>45813</v>
       </c>
@@ -808,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>45814</v>
       </c>
@@ -821,11 +814,8 @@
       <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>45815</v>
       </c>
@@ -835,277 +825,257 @@
       <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="B6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B16" s="7">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>45817</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>45818</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>45819</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>45820</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>45821</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>45822</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>45823</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>45824</v>
-      </c>
-      <c r="B14" s="7">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>45825</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>45826</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1.5</v>
-      </c>
       <c r="C16" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="11" t="s">
-        <v>15</v>
+      <c r="C17" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45829</v>
+        <v>45833</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="12" t="s">
-        <v>19</v>
+      <c r="C19" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45830</v>
+        <v>45834</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" t="s">
-        <v>21</v>
+      <c r="C20" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45831</v>
+        <v>45835</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="10" t="s">
-        <v>9</v>
+      <c r="C21" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45832</v>
+        <v>45836</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="11" t="s">
-        <v>11</v>
+      <c r="C22" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45833</v>
+        <v>45838</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="11" t="s">
-        <v>13</v>
+      <c r="C23" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>45834</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>45835</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="11" t="s">
-        <v>17</v>
+      <c r="B24">
+        <f>SUM(B1:B23)</f>
+        <v>25.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>45836</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="12" t="s">
-        <v>19</v>
+      <c r="A26" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>45837</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" t="s">
-        <v>21</v>
+      <c r="A27" s="4">
+        <v>4.5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>45838</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="10" t="s">
-        <v>9</v>
+      <c r="A28" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29">
-        <f>SUM(B1:B28)</f>
-        <v>23.5</v>
+      <c r="A29" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B28">
-      <formula1>$E$4:$E$14</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B23">
+      <formula1>$A$26:$A$36</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1,121 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="1" r:id="rId1"/>
     <sheet name="日历" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>月度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论正常上班</t>
+  </si>
+  <si>
+    <t>理论周六上班</t>
+  </si>
+  <si>
+    <t>实际正常上班</t>
+  </si>
+  <si>
+    <t>实际周六上班</t>
+  </si>
+  <si>
+    <t>理论总天数</t>
+  </si>
+  <si>
+    <t>应加班一档时长</t>
+  </si>
+  <si>
+    <t>应加班二档时长</t>
   </si>
   <si>
     <t>已加班时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际正常上班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>二</t>
   </si>
   <si>
-    <t>实际周六上班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>三</t>
   </si>
   <si>
-    <t>理论总天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>四-请假</t>
   </si>
   <si>
-    <t>应加班一档时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>五</t>
   </si>
   <si>
-    <t>应加班二档时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论正常上班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论周六上班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>六</t>
   </si>
   <si>
     <t>一</t>
   </si>
   <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>四</t>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四-请假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -123,50 +106,168 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,16 +277,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -200,8 +304,176 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -209,18 +481,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -231,49 +736,105 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="23" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="24" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="23" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,12 +1116,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
@@ -568,7 +1128,7 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="5" width="13" customWidth="1"/>
@@ -578,7 +1138,7 @@
     <col min="9" max="10" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="7:8">
       <c r="G1">
         <v>2000</v>
       </c>
@@ -586,33 +1146,33 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -659,67 +1219,67 @@
         <v>8334.08210526316</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>202506</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>202507</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>202508</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>202509</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>202510</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>202511</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>202512</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>202601</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>202602</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>202603</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>202604</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>202605</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>202606</v>
       </c>
@@ -755,184 +1315,185 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>45811</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="2">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>11</v>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>45812</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>45813</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>45814</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>17</v>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>45815</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1.5</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>45817</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1.5</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>45818</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>45819</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>14</v>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>45820</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>1.5</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>16</v>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>45821</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>45822</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>45824</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>9</v>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>45825</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1.5</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>11</v>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>45826</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>1.5</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>13</v>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>45827</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -940,46 +1501,48 @@
       <c r="A16" s="1">
         <v>45828</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>45831</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10" t="s">
-        <v>9</v>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>45832</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="11" t="s">
-        <v>11</v>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>45833</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="11" t="s">
-        <v>13</v>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>45834</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -987,98 +1550,102 @@
       <c r="A21" s="1">
         <v>45835</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="11" t="s">
-        <v>17</v>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>45836</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="12" t="s">
-        <v>19</v>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>45838</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <f>23*1.5</f>
+        <v>34.5</v>
+      </c>
       <c r="B24">
         <f>SUM(B1:B23)</f>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4">
+    <row r="27" spans="1:1">
+      <c r="A27" s="9">
         <v>4.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3">
+    <row r="28" spans="1:1">
+      <c r="A28" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4">
+    <row r="29" spans="1:1">
+      <c r="A29" s="9">
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+    <row r="30" spans="1:1">
+      <c r="A30" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4">
+    <row r="31" spans="1:1">
+      <c r="A31" s="9">
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3">
+    <row r="32" spans="1:1">
+      <c r="A32" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4">
+      <c r="A33" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5">
+      <c r="A34" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="2">
+      <c r="A35" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="6">
+      <c r="A36" s="12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B23">
       <formula1>$A$26:$A$36</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -88,7 +88,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,27 +111,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -584,19 +564,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,127 +597,115 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,16 +722,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="23" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="23" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1">
@@ -1327,7 +1307,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1523,7 +1503,9 @@
       <c r="A18" s="1">
         <v>45832</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="6">
+        <v>1.5</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1541,9 @@
       <c r="A22" s="1">
         <v>45836</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
       <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
@@ -1580,7 +1564,7 @@
       </c>
       <c r="B24">
         <f>SUM(B1:B23)</f>
-        <v>27.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1">

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1514,7 +1514,9 @@
       <c r="A19" s="1">
         <v>45833</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6">
+        <v>1.5</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1564,7 +1566,7 @@
       </c>
       <c r="B24">
         <f>SUM(B1:B23)</f>
-        <v>29</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="26" spans="1:1">

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1525,7 +1525,9 @@
       <c r="A20" s="1">
         <v>45834</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6">
+        <v>1.5</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1566,7 +1568,7 @@
       </c>
       <c r="B24">
         <f>SUM(B1:B23)</f>
-        <v>30.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1">

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1536,7 +1536,9 @@
       <c r="A21" s="1">
         <v>45835</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6">
+        <v>1.5</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1568,7 +1570,7 @@
       </c>
       <c r="B24">
         <f>SUM(B1:B23)</f>
-        <v>32</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="26" spans="1:1">

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1558,7 +1558,9 @@
       <c r="A23" s="1">
         <v>45838</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6">
+        <v>2.5</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +1572,7 @@
       </c>
       <c r="B24">
         <f>SUM(B1:B23)</f>
-        <v>33.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:1">

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="1" r:id="rId1"/>
-    <sheet name="日历" sheetId="3" r:id="rId2"/>
+    <sheet name="6日历" sheetId="3" r:id="rId2"/>
+    <sheet name="7日历" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
   <si>
     <t>月度</t>
   </si>
@@ -1105,7 +1106,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1116,6 +1117,7 @@
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="14.125" customWidth="1"/>
     <col min="9" max="10" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:8">
@@ -1199,9 +1201,45 @@
         <v>8334.08210526316</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>202506</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <f>(9291.26*D4/B4+1708.74*E4/C4)*0.8</f>
+        <v>8428.3496</v>
+      </c>
+      <c r="K4">
+        <f>IF(I4&gt;=G4,2000,IF(I4&gt;=H4,1000,0))</f>
+        <v>2000</v>
+      </c>
+      <c r="L4">
+        <f>J4+K4</f>
+        <v>10428.3496</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1307,7 +1345,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1640,4 +1678,249 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>45864</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>45868</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>45869</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 B5:B21">
+      <formula1>$A$21:$A$25</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
   <si>
     <t>月度</t>
   </si>
@@ -78,6 +78,9 @@
   <si>
     <t>四</t>
   </si>
+  <si>
+    <t>d</t>
+  </si>
 </sst>
 </file>
 
@@ -99,12 +102,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -113,6 +110,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -628,10 +631,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,37 +720,37 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="23" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="24" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="23" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="23" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1344,7 +1347,7 @@
   <sheetPr/>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -1354,10 +1357,10 @@
       <c r="A1" s="1">
         <v>45811</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="5">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1365,10 +1368,10 @@
       <c r="A2" s="1">
         <v>45812</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1376,10 +1379,10 @@
       <c r="A3" s="1">
         <v>45813</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1387,10 +1390,10 @@
       <c r="A4" s="1">
         <v>45814</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1398,10 +1401,10 @@
       <c r="A5" s="1">
         <v>45815</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>1.5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1409,10 +1412,10 @@
       <c r="A6" s="1">
         <v>45817</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>1.5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1420,10 +1423,10 @@
       <c r="A7" s="1">
         <v>45818</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1431,10 +1434,10 @@
       <c r="A8" s="1">
         <v>45819</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1442,10 +1445,10 @@
       <c r="A9" s="1">
         <v>45820</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>1.5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1453,10 +1456,10 @@
       <c r="A10" s="1">
         <v>45821</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1464,10 +1467,10 @@
       <c r="A11" s="1">
         <v>45822</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1475,10 +1478,10 @@
       <c r="A12" s="1">
         <v>45824</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1486,10 +1489,10 @@
       <c r="A13" s="1">
         <v>45825</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>1.5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1497,10 +1500,10 @@
       <c r="A14" s="1">
         <v>45826</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>1.5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1508,10 +1511,10 @@
       <c r="A15" s="1">
         <v>45827</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1519,10 +1522,10 @@
       <c r="A16" s="1">
         <v>45828</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1530,10 +1533,10 @@
       <c r="A17" s="1">
         <v>45831</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1541,10 +1544,10 @@
       <c r="A18" s="1">
         <v>45832</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>1.5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1552,10 +1555,10 @@
       <c r="A19" s="1">
         <v>45833</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>1.5</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1563,10 +1566,10 @@
       <c r="A20" s="1">
         <v>45834</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <v>1.5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1574,10 +1577,10 @@
       <c r="A21" s="1">
         <v>45835</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="7">
         <v>1.5</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1585,10 +1588,10 @@
       <c r="A22" s="1">
         <v>45836</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="7">
         <v>0</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1596,10 +1599,10 @@
       <c r="A23" s="1">
         <v>45838</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="7">
         <v>2.5</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1683,242 +1686,246 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>45839</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45840</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45841</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="C3">
+        <v>3.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>45842</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>45845</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>45846</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>45847</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>45848</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>45849</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>45850</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>45852</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>45853</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>45854</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>45855</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>45856</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>45859</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>45860</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>45861</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>45862</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>45863</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>45864</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>45866</v>
       </c>
-      <c r="B22"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>45867</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>45868</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>45869</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C1:C25)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D26">
+        <f>B26-C26</f>
+        <v>27.5</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 B5:B21">
-      <formula1>$A$21:$A$25</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1689,7 +1689,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1744,12 +1744,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>45845</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1918,11 +1921,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>27.5</v>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1689,7 +1689,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1755,12 +1755,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>45846</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1921,11 +1924,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>25.5</v>
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
   <si>
     <t>月度</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>已加班时长</t>
+  </si>
+  <si>
+    <t>应到</t>
+  </si>
+  <si>
+    <t>实到</t>
   </si>
   <si>
     <t>二</t>
@@ -1106,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1131,7 +1137,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1159,8 +1165,14 @@
       <c r="I2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>202505</v>
       </c>
@@ -1202,6 +1214,9 @@
       <c r="L3">
         <f>J3+K3</f>
         <v>8334.08210526316</v>
+      </c>
+      <c r="M3">
+        <v>8733</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1361,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1372,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1383,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1394,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1405,7 +1420,7 @@
         <v>1.5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1416,7 +1431,7 @@
         <v>1.5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1427,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1438,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1449,7 +1464,7 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1460,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1471,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1482,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1493,7 +1508,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1504,7 +1519,7 @@
         <v>1.5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1515,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1526,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1537,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1548,7 +1563,7 @@
         <v>1.5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1559,7 +1574,7 @@
         <v>1.5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1570,7 +1585,7 @@
         <v>1.5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1581,7 +1596,7 @@
         <v>1.5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1592,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1603,7 +1618,7 @@
         <v>2.5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1689,7 +1704,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1699,7 +1714,7 @@
         <v>45839</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1">
         <v>1.5</v>
@@ -1710,13 +1725,13 @@
         <v>45840</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>3.5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1724,13 +1739,13 @@
         <v>45841</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>3.5</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1738,7 +1753,7 @@
         <v>45842</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1749,7 +1764,7 @@
         <v>45845</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1760,18 +1775,21 @@
         <v>45846</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>45847</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1779,7 +1797,7 @@
         <v>45848</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1787,7 +1805,7 @@
         <v>45849</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1795,7 +1813,7 @@
         <v>45850</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1803,7 +1821,7 @@
         <v>45852</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1811,7 +1829,7 @@
         <v>45853</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1819,7 +1837,7 @@
         <v>45854</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1827,7 +1845,7 @@
         <v>45855</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1835,7 +1853,7 @@
         <v>45856</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1843,7 +1861,7 @@
         <v>45859</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1851,7 +1869,7 @@
         <v>45860</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1859,7 +1877,7 @@
         <v>45861</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1867,7 +1885,7 @@
         <v>45862</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1875,7 +1893,7 @@
         <v>45863</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1883,7 +1901,7 @@
         <v>45864</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1891,7 +1909,7 @@
         <v>45866</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1899,7 +1917,7 @@
         <v>45867</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1907,7 +1925,7 @@
         <v>45868</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1915,7 +1933,7 @@
         <v>45869</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -1924,11 +1942,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>23.5</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -818,13 +818,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1704,7 +1697,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1792,12 +1785,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>45848</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1942,11 +1938,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>22</v>
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1212,7 +1212,7 @@
         <v>8733</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>202506</v>
       </c>
@@ -1251,6 +1251,9 @@
       <c r="L4">
         <f>J4+K4</f>
         <v>10428.3496</v>
+      </c>
+      <c r="M4">
+        <v>10297</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1697,7 +1700,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1796,20 +1799,26 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>45849</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>45850</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1938,11 +1947,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>20.5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1821,12 +1821,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>45852</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1947,11 +1950,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>19</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1832,12 +1832,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>45853</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1950,11 +1953,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>17.5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1843,12 +1843,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>45854</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1953,11 +1956,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1854,12 +1854,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>45855</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1956,11 +1959,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>14</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1865,12 +1865,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>45856</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1959,11 +1962,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1876,28 +1876,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>45859</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>45860</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>45861</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1962,11 +1971,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>24.5</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>11.5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1909,28 +1909,37 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>45862</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>45863</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>45864</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1971,11 +1980,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1942,12 +1942,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>45866</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="C22">
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1980,11 +1983,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>32</v>
+        <v>33.5</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="上班" sheetId="1" r:id="rId1"/>
     <sheet name="6日历" sheetId="3" r:id="rId2"/>
     <sheet name="7日历" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -719,8 +720,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1108,7 +1112,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1256,9 +1260,45 @@
         <v>10297</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>202507</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <f>(9291.26*D5/B5+1708.74*E5/C5)*0.8</f>
+        <v>8800</v>
+      </c>
+      <c r="K5">
+        <f>IF(I5&gt;=G5,2000,IF(I5&gt;=H5,1000,0))</f>
+        <v>2000</v>
+      </c>
+      <c r="L5">
+        <f>J5+K5</f>
+        <v>10800</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1365,255 +1405,255 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>45811</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="6">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>45812</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>45813</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>45814</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>45815</v>
       </c>
-      <c r="B5" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>45817</v>
       </c>
-      <c r="B6" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>45818</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>45819</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>45820</v>
       </c>
-      <c r="B9" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>45821</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>45822</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>45824</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>45825</v>
       </c>
-      <c r="B13" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>45826</v>
       </c>
-      <c r="B14" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>45827</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>45828</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>45831</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>2</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>45832</v>
       </c>
-      <c r="B18" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>45833</v>
       </c>
-      <c r="B19" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>45834</v>
       </c>
-      <c r="B20" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>45835</v>
       </c>
-      <c r="B21" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>45836</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>0</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>45838</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>2.5</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1628,57 +1668,57 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="8">
+      <c r="A26" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="9">
+      <c r="A27" s="10">
         <v>4.5</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="9">
+      <c r="A29" s="10">
         <v>3.5</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="8">
+      <c r="A32" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="9">
+      <c r="A33" s="10">
         <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="10">
+      <c r="A34" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="11">
+      <c r="A35" s="12">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="12">
+      <c r="A36" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1699,17 +1739,17 @@
   <sheetPr/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>45839</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C1">
@@ -1717,10 +1757,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>45840</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2">
@@ -1731,10 +1771,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>45841</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3">
@@ -1745,10 +1785,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>45842</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4">
@@ -1756,10 +1796,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>45845</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5">
@@ -1767,10 +1807,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>45846</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6">
@@ -1778,10 +1818,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>45847</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7">
@@ -1789,10 +1829,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>45848</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8">
@@ -1800,10 +1840,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>45849</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9">
@@ -1811,10 +1851,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>45850</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10">
@@ -1822,10 +1862,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>45852</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C11">
@@ -1833,10 +1873,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>45853</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12">
@@ -1844,10 +1884,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>45854</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13">
@@ -1855,10 +1895,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>45855</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C14">
@@ -1866,10 +1906,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>45856</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C15">
@@ -1877,10 +1917,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>45859</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1888,10 +1928,10 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>45860</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C17">
@@ -1899,10 +1939,10 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>45861</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C18">
@@ -1910,10 +1950,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>45862</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C19">
@@ -1921,10 +1961,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>45863</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20">
@@ -1932,10 +1972,10 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>45864</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C21">
@@ -1943,38 +1983,47 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>45866</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C22">
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
         <v>45867</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>45868</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="C24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>45869</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="C25">
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -1983,11 +2032,11 @@
       </c>
       <c r="C26">
         <f>SUM(C1:C25)</f>
-        <v>33.5</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
-        <v>2.5</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -1995,4 +2044,226 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B1">
+        <v>2.5</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>45873</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>45880</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45882</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>45883</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>45887</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>45889</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>45890</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>45891</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>45894</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B1:B23)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -2052,7 +2052,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2075,6 +2075,9 @@
       <c r="A2" s="1">
         <v>45873</v>
       </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -2259,7 +2262,7 @@
       </c>
       <c r="B24">
         <f>SUM(B1:B23)</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/个人计算小表.xlsx
+++ b/个人计算小表.xlsx
@@ -2052,7 +2052,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2086,6 +2086,9 @@
       <c r="A3" s="1">
         <v>45874</v>
       </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
       <c r="C3">
         <v>2</v>
       </c>
@@ -2094,6 +2097,9 @@
       <c r="A4" s="1">
         <v>45875</v>
       </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
       <c r="C4">
         <v>3</v>
       </c>
@@ -2102,6 +2108,9 @@
       <c r="A5" s="1">
         <v>45876</v>
       </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
       <c r="C5">
         <v>4</v>
       </c>
@@ -2110,6 +2119,9 @@
       <c r="A6" s="1">
         <v>45877</v>
       </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6">
         <v>5</v>
       </c>
@@ -2256,13 +2268,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>36</v>
       </c>
       <c r="B24">
         <f>SUM(B1:B23)</f>
-        <v>4</v>
+        <v>10.5</v>
+      </c>
+      <c r="C24">
+        <f>A24-B24</f>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>
